--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -10,53 +10,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgY9mXC5UuZO6S0ixWtOc7GIsWzWA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="h/aLr2XArEXEJtAmmV5lirR0p6RxnhFF9bxUqUPsWZA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="B1">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAApeX6A70
-Icmi Alif Safitri    (2023-01-31 05:06:28)
-@ruben@iesr.or.id minta tolomng diupdate pakai data ESDM ya, mas
-cc abiyan@iesr.or.id
-_Assigned to Ruben Layukallo_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B8">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAApeX6A7w
-Icmi Alif Safitri    (2023-01-31 04:59:54)
-@ruben@iesr.or.id @icmi@iesr.or.id please update this data
-_Assigned to Ruben Layukallo_
-------
-ID#AAAApfN0Nt8
-Ruben Layukallo    (2023-02-01 10:33:08)
-Solar Thermal belum nemu (mngkn belum pernah ada) hitungan kapasitas potensial-nya</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7misrlrCTzPkRXVWIRONd2QwvYCdJg=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>MPCbS Max Potential Capacity by Source</t>
   </si>
@@ -146,9 +108,6 @@
   </si>
   <si>
     <t>nuclear</t>
-  </si>
-  <si>
-    <t>ESDM</t>
   </si>
   <si>
     <t>petroleum</t>
@@ -2766,13 +2725,10 @@
       <c r="B10" s="3">
         <v>24000.0</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="17">
         <f t="shared" ref="B11:B12" si="2">9*10^12</f>
@@ -2781,7 +2737,7 @@
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="17">
         <f t="shared" si="2"/>
@@ -2790,7 +2746,7 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="17">
         <f>B2</f>
@@ -2807,7 +2763,7 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="17">
         <f>B11</f>
@@ -2816,7 +2772,7 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="17">
         <f>B11</f>
@@ -2825,7 +2781,7 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="18">
         <v>0.0</v>
@@ -3815,7 +3771,6 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>